--- a/output/【河洛話注音】回首前塵.xlsx
+++ b/output/【河洛話注音】回首前塵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CF1D6F-03EB-4186-9CD0-727B13F1980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B8A47F-A392-4CB5-BF71-A23AF8D4EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C2BB877-9A27-DE41-A975-959405729D38}"/>
+    <workbookView xWindow="-19860" yWindow="2970" windowWidth="16830" windowHeight="11895" firstSheet="7" activeTab="9" xr2:uid="{5C2BB877-9A27-DE41-A975-959405729D38}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -3657,7 +3657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E1417C-3336-DD47-87EE-8C06C537F5D3}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
@@ -7515,7 +7515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31995900-3750-41C5-AA98-B144370BA685}">
   <dimension ref="A1:A156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>

--- a/output/【河洛話注音】回首前塵.xlsx
+++ b/output/【河洛話注音】回首前塵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B8A47F-A392-4CB5-BF71-A23AF8D4EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E510EF-914A-4D05-ACC1-855DC00F874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19860" yWindow="2970" windowWidth="16830" windowHeight="11895" firstSheet="7" activeTab="9" xr2:uid="{5C2BB877-9A27-DE41-A975-959405729D38}"/>
+    <workbookView xWindow="-27525" yWindow="1950" windowWidth="27525" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{5C2BB877-9A27-DE41-A975-959405729D38}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="777">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,142 +865,7 @@
     <t>&lt;/p&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;多&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;少&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;語&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;星&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt; &lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瓊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;東&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;化&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;入&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;拂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;柳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;小&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;情&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;落&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;離&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;簾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;月&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨㄚㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;消&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;許&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;朦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;還&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;休&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;珠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;恰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄚㆴ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;水&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t>&lt;div class='pin_yin'&gt;&lt;p&gt;</t>
@@ -1613,12 +1478,6 @@
     <t>Øit4</t>
   </si>
   <si>
-    <t>chun1</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
     <t xml:space="preserve">《回首前塵》【十五音切語】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
@@ -1629,15 +1488,9 @@
 </t>
   </si>
   <si>
-    <t>&lt;div class='fifteen_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;堅五曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t>&lt;/p&gt;&lt;p style='font-size: 0.6em;letter-spacing: 2px;text-align: right;'&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩五門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1710,106 +1563,7 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;似&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t>&lt;div class='zhu_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;花&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;計&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;西&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;緒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;說&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;也&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;匆&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;滿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;畫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鉤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;為&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;煙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;朧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;欲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;又&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;緣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;似&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class='pin_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chîan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -2262,232 +2016,481 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cian5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tin5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;多&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;to1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;少&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siau2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siau3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;語&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gi2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;星&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;biu5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瓊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;king5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lio5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ia7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;花&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hua1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiu7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;計&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ke3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;西&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;se1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;東&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciu5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;緒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;化&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hua3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;入&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jip8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;buan2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tam5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;拂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hut4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;柳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;小&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siau2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cik8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;說&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sue3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;情&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cing5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;落&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;也&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ia2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;離&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;li5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;it8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;滿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ban2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;畫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hai7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;簾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ia5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;月&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨㄚㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;guat8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鉤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kio1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;為&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ui7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;消&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siau1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siu3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;煙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ian1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;許&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hi2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;朦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;朧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;long5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;欲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;還&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;huan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;休&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;珠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cu1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lui7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kiu7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;又&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;緣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;biong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;恰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄚㆴ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khap4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;似&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chun1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;水&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sui2&lt;/rt&gt;&lt;/ruby&gt;</t>
+    <t>chun1</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>&lt;div class='fifteen_yin'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p class='author'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='Piau_Im'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㆤˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㄣˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;多&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;少&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄠˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄠ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;語&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;星&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瓊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄜˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄚ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;花&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㄚ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄨㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;計&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆤ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;西&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㆤ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;東&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;緒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;化&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㄚ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;入&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆢㄧㆴ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨㄢˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㆰˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;拂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;柳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;小&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄠˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;說&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨㆤ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;情&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄚ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;落&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;也&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;離&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆵ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;滿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄢˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;畫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄞ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;簾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㆰˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄚˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;月&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄨㄚㆵ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆢㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鉤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;為&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄨㄧ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;消&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄠ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄨ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;煙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄢ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;許&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;朦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;朧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;欲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;還&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;休&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄨ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;珠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄗㄨ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄨㄧ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;又&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;緣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄨㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;恰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㄚㆴ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;似&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄤ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㄨㄣ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;水&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='pin_yin'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='Siang_Pai'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rt&gt;cian5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塵&lt;/rb&gt;&lt;rt&gt;tin5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;多&lt;/rb&gt;&lt;rt&gt;to1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;少&lt;/rb&gt;&lt;rt&gt;siau2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笑&lt;/rb&gt;&lt;rt&gt;siau3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;語&lt;/rb&gt;&lt;rt&gt;gi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;星&lt;/rb&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眸&lt;/rb&gt;&lt;rt&gt;biu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瓊&lt;/rb&gt;&lt;rt&gt;king5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rt&gt;lio5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rt&gt;ia7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rt&gt;si2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笙&lt;/rb&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;花&lt;/rb&gt;&lt;rt&gt;hua1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飛&lt;/rb&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rt&gt;bu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rt&gt;hiu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;計&lt;/rb&gt;&lt;rt&gt;ke3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;西&lt;/rb&gt;&lt;rt&gt;se1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;東&lt;/rb&gt;&lt;rt&gt;tong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愁&lt;/rb&gt;&lt;rt&gt;ciu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;緒&lt;/rb&gt;&lt;rt&gt;si2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;化&lt;/rb&gt;&lt;rt&gt;hua3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;入&lt;/rb&gt;&lt;rt&gt;jip8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rt&gt;buan2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淡&lt;/rb&gt;&lt;rt&gt;tam5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;拂&lt;/rb&gt;&lt;rt&gt;hut4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;柳&lt;/rb&gt;&lt;rt&gt;liu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;小&lt;/rb&gt;&lt;rt&gt;siau2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寂&lt;/rb&gt;&lt;rt&gt;cik8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;說&lt;/rb&gt;&lt;rt&gt;sue3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;情&lt;/rb&gt;&lt;rt&gt;cing5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謝&lt;/rb&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;落&lt;/rb&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;也&lt;/rb&gt;&lt;rt&gt;ia2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;離&lt;/rb&gt;&lt;rt&gt;li5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;溢&lt;/rb&gt;&lt;rt&gt;it8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;滿&lt;/rb&gt;&lt;rt&gt;ban2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;畫&lt;/rb&gt;&lt;rt&gt;hai7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;簾&lt;/rb&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rt&gt;ia5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄚˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;月&lt;/rb&gt;&lt;rt&gt;guat8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨㄚㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鉤&lt;/rb&gt;&lt;rt&gt;kio1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;為&lt;/rb&gt;&lt;rt&gt;ui7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;消&lt;/rb&gt;&lt;rt&gt;siau1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘦&lt;/rb&gt;&lt;rt&gt;siu3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;煙&lt;/rb&gt;&lt;rt&gt;ian1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幾&lt;/rb&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;許&lt;/rb&gt;&lt;rt&gt;hi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;朦&lt;/rb&gt;&lt;rt&gt;bong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;朧&lt;/rb&gt;&lt;rt&gt;long5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;欲&lt;/rb&gt;&lt;rt&gt;iok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;還&lt;/rb&gt;&lt;rt&gt;huan5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;休&lt;/rb&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;珠&lt;/rb&gt;&lt;rt&gt;cu1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淚&lt;/rb&gt;&lt;rt&gt;lui7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舊&lt;/rb&gt;&lt;rt&gt;kiu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;又&lt;/rb&gt;&lt;rt&gt;iu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;緣&lt;/rb&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夢&lt;/rb&gt;&lt;rt&gt;biong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;恰&lt;/rb&gt;&lt;rt&gt;khap4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄚㆴ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;似&lt;/rb&gt;&lt;rt&gt;si2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;春&lt;/rb&gt;&lt;rt&gt;chun1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;水&lt;/rb&gt;&lt;rt&gt;sui2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -2909,42 +2912,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2959,37 +2962,37 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3004,47 +3007,47 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3059,37 +3062,37 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3109,32 +3112,32 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -3149,37 +3152,37 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -3194,42 +3197,42 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -3244,37 +3247,37 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -3294,22 +3297,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -3319,22 +3322,22 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -3349,22 +3352,22 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -3374,22 +3377,22 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -3399,37 +3402,37 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -3449,22 +3452,22 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -3474,22 +3477,22 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -3504,22 +3507,22 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -3529,22 +3532,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -3554,42 +3557,42 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -3599,42 +3602,42 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -3657,13 +3660,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E1417C-3336-DD47-87EE-8C06C537F5D3}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3708,13 +3713,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D4" t="s">
         <v>165</v>
@@ -3748,7 +3753,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51">
@@ -3866,7 +3871,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
         <v>114</v>
@@ -3916,13 +3921,13 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
         <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -3936,10 +3941,10 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
@@ -3956,10 +3961,10 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="C20" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D20" t="s">
         <v>118</v>
@@ -3976,7 +3981,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
@@ -4046,7 +4051,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="C26" t="s">
         <v>120</v>
@@ -4086,7 +4091,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="C28" t="s">
         <v>120</v>
@@ -4166,13 +4171,13 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="C32" t="s">
         <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -4186,13 +4191,13 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="C33" t="s">
         <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -4236,10 +4241,10 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="C37" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
@@ -4256,7 +4261,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="C38" t="s">
         <v>106</v>
@@ -4336,7 +4341,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="C42" t="s">
         <v>120</v>
@@ -4391,7 +4396,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s">
         <v>103</v>
@@ -4411,7 +4416,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="C48" t="s">
         <v>103</v>
@@ -4471,13 +4476,13 @@
         <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="C51" t="s">
         <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4491,7 +4496,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s">
         <v>120</v>
@@ -4541,13 +4546,13 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="C56" t="s">
         <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="E56">
         <v>5</v>
@@ -4561,10 +4566,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="C57" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D57" t="s">
         <v>144</v>
@@ -4581,10 +4586,10 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D58" t="s">
         <v>118</v>
@@ -4621,10 +4626,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="C60" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D60" t="s">
         <v>113</v>
@@ -4641,10 +4646,10 @@
         <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="C61" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D61" t="s">
         <v>130</v>
@@ -4671,7 +4676,7 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
         <v>120</v>
@@ -4711,7 +4716,7 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
         <v>120</v>
@@ -4751,7 +4756,7 @@
         <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="C68" t="s">
         <v>152</v>
@@ -4771,10 +4776,10 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="C69" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D69" t="s">
         <v>118</v>
@@ -4831,10 +4836,10 @@
         <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="C75" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D75" t="s">
         <v>130</v>
@@ -4851,10 +4856,10 @@
         <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="C76" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D76" t="s">
         <v>154</v>
@@ -4871,13 +4876,13 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="C77" t="s">
         <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -4891,13 +4896,13 @@
         <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="C78" t="s">
         <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="E78">
         <v>7</v>
@@ -4966,10 +4971,10 @@
         <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="C84" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D84" t="s">
         <v>118</v>
@@ -5026,13 +5031,13 @@
         <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C87" t="s">
         <v>116</v>
       </c>
       <c r="D87" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5051,10 +5056,10 @@
         <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="C89" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D89" t="s">
         <v>123</v>
@@ -5181,10 +5186,10 @@
         <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="C97" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D97" t="s">
         <v>165</v>
@@ -5226,7 +5231,7 @@
         <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="C100" t="s">
         <v>116</v>
@@ -5286,7 +5291,7 @@
         <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="C103" t="s">
         <v>117</v>
@@ -5311,10 +5316,10 @@
         <v>86</v>
       </c>
       <c r="B105" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="C105" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D105" t="s">
         <v>158</v>
@@ -5391,10 +5396,10 @@
         <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="C109" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D109" t="s">
         <v>125</v>
@@ -5466,10 +5471,10 @@
         <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="C115" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D115" t="s">
         <v>118</v>
@@ -5551,13 +5556,13 @@
         <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="C120" t="s">
         <v>106</v>
       </c>
       <c r="D120" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5571,7 +5576,7 @@
         <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="C121" t="s">
         <v>120</v>
@@ -5591,10 +5596,10 @@
         <v>93</v>
       </c>
       <c r="B122" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="C122" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D122" t="s">
         <v>130</v>
@@ -5701,10 +5706,10 @@
         <v>94</v>
       </c>
       <c r="B129" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="C129" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D129" t="s">
         <v>140</v>
@@ -5726,7 +5731,7 @@
         <v>82</v>
       </c>
       <c r="B131" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="C131" t="s">
         <v>116</v>
@@ -5766,10 +5771,10 @@
         <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="C133" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D133" t="s">
         <v>130</v>
@@ -5786,7 +5791,7 @@
         <v>95</v>
       </c>
       <c r="B134" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="C134" t="s">
         <v>114</v>
@@ -5831,7 +5836,7 @@
         <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="C137" t="s">
         <v>106</v>
@@ -5851,10 +5856,10 @@
         <v>98</v>
       </c>
       <c r="B138" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="C138" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D138" t="s">
         <v>154</v>
@@ -5891,10 +5896,10 @@
         <v>100</v>
       </c>
       <c r="B140" t="s">
-        <v>493</v>
+        <v>618</v>
       </c>
       <c r="C140" t="s">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="D140" t="s">
         <v>180</v>
@@ -5996,7 +6001,7 @@
         <v>97</v>
       </c>
       <c r="B146" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="C146" t="s">
         <v>106</v>
@@ -6016,10 +6021,10 @@
         <v>98</v>
       </c>
       <c r="B147" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="C147" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D147" t="s">
         <v>154</v>
@@ -6056,10 +6061,10 @@
         <v>100</v>
       </c>
       <c r="B149" t="s">
-        <v>493</v>
+        <v>618</v>
       </c>
       <c r="C149" t="s">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="D149" t="s">
         <v>180</v>
@@ -6297,7 +6302,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6314,7 +6319,7 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6348,7 +6353,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6365,7 +6370,7 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6382,7 +6387,7 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -6433,7 +6438,7 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -6450,7 +6455,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -6467,7 +6472,7 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6484,7 +6489,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -6501,7 +6506,7 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -6518,7 +6523,7 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6535,7 +6540,7 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -6552,7 +6557,7 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -6569,7 +6574,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6586,7 +6591,7 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -6654,7 +6659,7 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6671,7 +6676,7 @@
         <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6739,7 +6744,7 @@
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6756,7 +6761,7 @@
         <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6807,7 +6812,7 @@
         <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -6824,7 +6829,7 @@
         <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -6909,7 +6914,7 @@
         <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -6960,7 +6965,7 @@
         <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -7079,7 +7084,7 @@
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -7096,7 +7101,7 @@
         <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7147,7 +7152,7 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -7164,7 +7169,7 @@
         <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -7215,7 +7220,7 @@
         <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -7266,7 +7271,7 @@
         <v>82</v>
       </c>
       <c r="D66" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -7283,7 +7288,7 @@
         <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -7300,7 +7305,7 @@
         <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -7363,7 +7368,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7388,7 +7393,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -7499,7 +7504,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7515,7 +7520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31995900-3750-41C5-AA98-B144370BA685}">
   <dimension ref="A1:A156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -7524,47 +7529,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>699</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -7574,37 +7579,37 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7614,42 +7619,42 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -7659,52 +7664,52 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -7714,42 +7719,42 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -7764,37 +7769,37 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -7804,42 +7809,42 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -7849,47 +7854,47 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -7899,42 +7904,42 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -7949,22 +7954,22 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -7974,22 +7979,22 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -8004,22 +8009,22 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -8029,22 +8034,22 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -8054,42 +8059,42 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -8104,22 +8109,22 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -8129,27 +8134,27 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -8159,22 +8164,22 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -8184,22 +8189,22 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -8209,42 +8214,42 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -8254,42 +8259,42 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -8321,47 +8326,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>556</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>623</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>624</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -8371,32 +8376,32 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>627</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>628</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>629</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>630</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>631</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>632</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -8411,37 +8416,37 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>633</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>634</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>636</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>637</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>638</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -8456,47 +8461,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>639</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>640</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>639</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>641</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>642</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>643</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>644</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>645</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>646</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -8511,37 +8516,37 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>647</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>648</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>649</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>651</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>652</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>653</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -8561,32 +8566,32 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>654</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>654</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>645</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>652</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -8601,37 +8606,37 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>657</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>634</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>658</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>659</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>660</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>647</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -8646,42 +8651,42 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>639</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>661</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>639</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>662</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>663</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>664</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -8696,37 +8701,37 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>665</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>647</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>666</v>
+        <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>667</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>668</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>669</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>653</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -8746,22 +8751,22 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>670</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>671</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>672</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>673</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -8771,22 +8776,22 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>674</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>675</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>676</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>677</v>
+        <v>595</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -8801,22 +8806,22 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>623</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>624</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>678</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -8826,22 +8831,22 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>679</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>680</v>
+        <v>598</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>681</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>682</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -8851,37 +8856,37 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>683</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>630</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>684</v>
+        <v>602</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>685</v>
+        <v>603</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>686</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>687</v>
+        <v>605</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>688</v>
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -8901,22 +8906,22 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>670</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>671</v>
+        <v>589</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>672</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>689</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -8926,22 +8931,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>645</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>652</v>
+        <v>570</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>690</v>
+        <v>608</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -8956,22 +8961,22 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>623</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>624</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>691</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -8981,22 +8986,22 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>679</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>680</v>
+        <v>598</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>647</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>692</v>
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -9006,42 +9011,42 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>693</v>
+        <v>611</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>694</v>
+        <v>612</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>695</v>
+        <v>613</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>696</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>697</v>
+        <v>615</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>698</v>
+        <v>616</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>646</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>688</v>
+        <v>606</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -9051,42 +9056,42 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>693</v>
+        <v>611</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>694</v>
+        <v>612</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>695</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>696</v>
+        <v>614</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>697</v>
+        <v>615</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>698</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>646</v>
+        <v>564</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>688</v>
+        <v>606</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -9118,47 +9123,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>593</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>556</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>594</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -9168,32 +9173,32 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>595</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -9208,37 +9213,37 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>596</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>597</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>597</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>598</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -9253,47 +9258,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>599</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>599</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>600</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -9308,37 +9313,37 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>602</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>603</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -9358,32 +9363,32 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>604</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>604</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>603</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -9398,37 +9403,37 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>596</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>597</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>590</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -9443,42 +9448,42 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>599</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>599</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>605</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>606</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -9493,37 +9498,37 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>607</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>608</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>609</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -9543,22 +9548,22 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>610</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>611</v>
+        <v>529</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -9568,22 +9573,22 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>612</v>
+        <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -9598,22 +9603,22 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>613</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -9623,22 +9628,22 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>614</v>
+        <v>532</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>615</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -9648,37 +9653,37 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>616</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -9698,22 +9703,22 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>610</v>
+        <v>528</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -9723,22 +9728,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>603</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>617</v>
+        <v>535</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -9753,22 +9758,22 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>618</v>
+        <v>536</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -9778,22 +9783,22 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>614</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>619</v>
+        <v>537</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -9803,42 +9808,42 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>620</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>621</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -9848,42 +9853,42 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>620</v>
+        <v>538</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>621</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -9917,47 +9922,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>556</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>586</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -9967,32 +9972,32 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>558</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -10007,37 +10012,37 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>559</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>561</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -10052,47 +10057,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>587</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>587</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>563</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -10107,37 +10112,37 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>588</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>565</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>589</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>566</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -10157,32 +10162,32 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>566</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -10197,37 +10202,37 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>559</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>590</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>588</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -10242,42 +10247,42 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>587</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>587</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>569</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>570</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -10292,37 +10297,37 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>588</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>571</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>572</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>573</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -10342,22 +10347,22 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>574</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -10367,22 +10372,22 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>576</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -10397,22 +10402,22 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>577</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -10422,22 +10427,22 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>578</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>579</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -10447,37 +10452,37 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>580</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>591</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -10497,22 +10502,22 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>574</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -10522,22 +10527,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>566</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>581</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -10552,22 +10557,22 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>592</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -10577,22 +10582,22 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>578</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>588</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>583</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -10602,42 +10607,42 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>584</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -10647,42 +10652,42 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>584</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -10714,47 +10719,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>556</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>557</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -10764,32 +10769,32 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>558</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -10804,37 +10809,37 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>559</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>561</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -10849,47 +10854,47 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>562</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>562</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>563</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -10904,37 +10909,37 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>564</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>565</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>566</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -10954,32 +10959,32 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>566</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -10994,37 +10999,37 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>559</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>568</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>564</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -11039,42 +11044,42 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>562</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>562</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>569</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>570</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -11089,37 +11094,37 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>564</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>571</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>572</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>573</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -11139,22 +11144,22 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>574</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -11164,22 +11169,22 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>576</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -11194,22 +11199,22 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>577</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -11219,22 +11224,22 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>578</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>579</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -11244,37 +11249,37 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>580</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -11294,22 +11299,22 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>574</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -11319,22 +11324,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>566</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>581</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -11349,22 +11354,22 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>582</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -11374,22 +11379,22 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>578</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>564</v>
+        <v>482</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>583</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -11399,42 +11404,42 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>584</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -11444,42 +11449,42 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>584</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>585</v>
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -11513,47 +11518,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>524</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -11563,37 +11568,37 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>262</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>263</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>264</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>265</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>266</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>525</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -11603,42 +11608,42 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>268</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>526</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>527</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>527</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>528</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>269</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>270</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -11648,52 +11653,52 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>529</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>271</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>529</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>272</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>273</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>530</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>531</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>532</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>274</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -11703,42 +11708,42 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>534</v>
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>275</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>276</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>277</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>535</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>278</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -11753,37 +11758,37 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>536</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>536</v>
+        <v>654</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>279</v>
+        <v>655</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>280</v>
+        <v>656</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>532</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>535</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -11793,42 +11798,42 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>281</v>
+        <v>657</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>526</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>282</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>527</v>
+        <v>635</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>537</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>283</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -11838,47 +11843,47 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>529</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>284</v>
+        <v>661</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>529</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>285</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>538</v>
+        <v>663</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>539</v>
+        <v>664</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>540</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>540</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -11888,42 +11893,42 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>286</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>541</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>542</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>543</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>287</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>278</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -11938,22 +11943,22 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>544</v>
+        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>288</v>
+        <v>671</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>289</v>
+        <v>672</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>545</v>
+        <v>673</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -11963,22 +11968,22 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>546</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>290</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>291</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>292</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -11993,22 +11998,22 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>293</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>294</v>
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>547</v>
+        <v>678</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>295</v>
+        <v>626</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -12018,22 +12023,22 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>548</v>
+        <v>679</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>296</v>
+        <v>680</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>297</v>
+        <v>681</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>549</v>
+        <v>682</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -12043,42 +12048,42 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>550</v>
+        <v>683</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>265</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>298</v>
+        <v>684</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>299</v>
+        <v>685</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>300</v>
+        <v>686</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>301</v>
+        <v>687</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>302</v>
+        <v>688</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -12093,22 +12098,22 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>544</v>
+        <v>670</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>288</v>
+        <v>671</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>289</v>
+        <v>672</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>303</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -12118,27 +12123,27 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>532</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>535</v>
+        <v>652</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>551</v>
+        <v>690</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>279</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -12148,22 +12153,22 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>293</v>
+        <v>623</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>294</v>
+        <v>624</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>295</v>
+        <v>626</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>552</v>
+        <v>691</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -12173,22 +12178,22 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>548</v>
+        <v>679</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>296</v>
+        <v>680</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>553</v>
+        <v>692</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -12198,42 +12203,42 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>304</v>
+        <v>693</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>554</v>
+        <v>694</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>555</v>
+        <v>695</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>305</v>
+        <v>696</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>306</v>
+        <v>697</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>307</v>
+        <v>698</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>274</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>302</v>
+        <v>688</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -12243,42 +12248,42 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>304</v>
+        <v>693</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>554</v>
+        <v>694</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>555</v>
+        <v>695</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>305</v>
+        <v>696</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>306</v>
+        <v>697</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>307</v>
+        <v>698</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>274</v>
+        <v>646</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>302</v>
+        <v>688</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -12312,7 +12317,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -13069,17 +13074,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>496</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -13094,7 +13099,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -13104,12 +13109,12 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -13144,7 +13149,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -13164,7 +13169,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -13179,7 +13184,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -13204,7 +13209,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -13214,7 +13219,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -13229,17 +13234,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -13259,12 +13264,12 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -13284,7 +13289,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -13309,12 +13314,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -13329,12 +13334,12 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -13354,7 +13359,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -13369,7 +13374,7 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -13379,7 +13384,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -13394,7 +13399,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -13404,7 +13409,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -13414,7 +13419,7 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -13424,12 +13429,12 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -13449,7 +13454,7 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -13459,12 +13464,12 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -13494,7 +13499,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -13509,7 +13514,7 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -13519,7 +13524,7 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -13574,7 +13579,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -13589,7 +13594,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -13649,7 +13654,7 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -13674,12 +13679,12 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -13719,7 +13724,7 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -13729,7 +13734,7 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:1">
@@ -13739,12 +13744,12 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -13759,7 +13764,7 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -13804,7 +13809,7 @@
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:1">
